--- a/New-Implementation/Data/complex-feasible.xlsx
+++ b/New-Implementation/Data/complex-feasible.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         </is>
       </c>
       <c r="O474" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="O570" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -19004,7 +19004,7 @@
         </is>
       </c>
       <c r="O643" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -19212,7 +19212,7 @@
         </is>
       </c>
       <c r="O651" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
